--- a/src/main/resources/ru/avem/kspem/app/protocolSD.xlsx
+++ b/src/main/resources/ru/avem/kspem/app/protocolSD.xlsx
@@ -22,13 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
+    <t xml:space="preserve">ООО «Авиаагрегат-Н»</t>
+  </si>
+  <si>
     <t xml:space="preserve">г. Новочеркасск</t>
   </si>
   <si>
-    <t xml:space="preserve">АИЕЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зав. № </t>
+    <t xml:space="preserve">АИЕЛ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">441462.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зав. №  </t>
   </si>
   <si>
     <t xml:space="preserve">Протокол испытания №  </t>
@@ -211,9 +217,6 @@
     <t xml:space="preserve">I ОЯ, А</t>
   </si>
   <si>
-    <t xml:space="preserve">f, Гц</t>
-  </si>
-  <si>
     <t xml:space="preserve">#nUBC#</t>
   </si>
   <si>
@@ -227,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">#nSpeed#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#nF#</t>
   </si>
   <si>
     <t xml:space="preserve">#nResult#</t>
@@ -803,6 +803,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>858240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>310680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Изображение 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1079640" cy="1079640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -811,10 +853,10 @@
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="17.71"/>
@@ -827,12 +869,14 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -844,11 +888,13 @@
       <c r="C2" s="2"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
@@ -860,10 +906,12 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8" t="n">
+        <v>211060143</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
@@ -886,11 +934,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -913,11 +961,11 @@
     <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -930,11 +978,11 @@
     <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -947,11 +995,11 @@
     <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -989,12 +1037,12 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
@@ -1017,7 +1065,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
@@ -1054,7 +1102,7 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -1188,25 +1236,25 @@
     <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="30"/>
       <c r="B16" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="35"/>
@@ -1268,25 +1316,25 @@
     <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="30"/>
       <c r="B17" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
@@ -1480,7 +1528,7 @@
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="26"/>
       <c r="B20" s="40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -1615,22 +1663,22 @@
       <c r="A22" s="30"/>
       <c r="B22" s="0"/>
       <c r="C22" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="34"/>
@@ -1692,25 +1740,25 @@
     <row r="23" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30"/>
       <c r="B23" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="34"/>
@@ -1904,7 +1952,7 @@
     <row r="26" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26"/>
       <c r="B26" s="40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -2038,18 +2086,18 @@
     <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="30"/>
       <c r="B28" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="34"/>
@@ -2112,18 +2160,18 @@
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="30"/>
       <c r="B29" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="34"/>
@@ -2318,7 +2366,7 @@
     <row r="32" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="26"/>
       <c r="B32" s="40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -2452,19 +2500,19 @@
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="30"/>
       <c r="B34" s="25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="35"/>
@@ -2526,19 +2574,19 @@
     <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30"/>
       <c r="B35" s="25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="35"/>
@@ -2732,7 +2780,7 @@
     <row r="38" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -2866,26 +2914,24 @@
     <row r="40" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30"/>
       <c r="B40" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="34"/>
       <c r="I40" s="34"/>
       <c r="J40" s="35"/>
       <c r="K40" s="33"/>
@@ -2946,26 +2992,24 @@
     <row r="41" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30"/>
       <c r="B41" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="G41" s="44" t="s">
         <v>70</v>
       </c>
+      <c r="H41" s="34"/>
       <c r="I41" s="34"/>
       <c r="J41" s="35"/>
       <c r="K41" s="33"/>
@@ -3474,10 +3518,11 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="51" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="51" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>